--- a/US_Labor_Statistics.xlsx
+++ b/US_Labor_Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steve\Downloads\ExcelDashboardDatasets-211110-193440\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADCDF9E-42B5-494A-959B-351AFCB5F22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D8D95F-3913-472C-9A79-20C35D9B20DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{DB438AB8-0F60-4224-9C67-97043B861F24}"/>
@@ -24,23 +24,15 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Data Prep'!$D$2:$E$12</definedName>
     <definedName name="_xlchart.v5.0" hidden="1">'Data Prep'!$N$2</definedName>
     <definedName name="_xlchart.v5.1" hidden="1">'Data Prep'!$N$3:$N$50</definedName>
-    <definedName name="_xlchart.v5.10" hidden="1">'Data Prep'!$S$2</definedName>
-    <definedName name="_xlchart.v5.11" hidden="1">'Data Prep'!$S$3:$S$50</definedName>
     <definedName name="_xlchart.v5.2" hidden="1">'Data Prep'!$S$2</definedName>
     <definedName name="_xlchart.v5.3" hidden="1">'Data Prep'!$S$3:$S$50</definedName>
-    <definedName name="_xlchart.v5.4" hidden="1">'Data Prep'!$N$2</definedName>
-    <definedName name="_xlchart.v5.5" hidden="1">'Data Prep'!$N$3:$N$50</definedName>
-    <definedName name="_xlchart.v5.6" hidden="1">'Data Prep'!$S$2</definedName>
-    <definedName name="_xlchart.v5.7" hidden="1">'Data Prep'!$S$3:$S$50</definedName>
-    <definedName name="_xlchart.v5.8" hidden="1">'Data Prep'!$N$2</definedName>
-    <definedName name="_xlchart.v5.9" hidden="1">'Data Prep'!$N$3:$N$50</definedName>
     <definedName name="Z_948164EF_B902_4A6C_8E3C_A935061C5153_.wvu.FilterData" localSheetId="0" hidden="1">Data!$A$1:$F$1919</definedName>
     <definedName name="Z_A1F01C08_243B_48FC_94A8_F102AEB1706D_.wvu.FilterData" localSheetId="0" hidden="1">Data!$A$1:$F$1919</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="ShowAllWorksheets" guid="{A1F01C08-243B-48FC-94A8-F102AEB1706D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="8" showFormulaBar="0"/>
     <customWorkbookView name="Dashboard" guid="{948164EF-B902-4A6C-8E3C-A935061C5153}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="8" showFormulaBar="0"/>
-    <customWorkbookView name="ShowAllWorksheets" guid="{A1F01C08-243B-48FC-94A8-F102AEB1706D}" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1936" windowHeight="1056" activeSheetId="8" showFormulaBar="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -567,7 +559,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3946" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3945" uniqueCount="81">
   <si>
     <t>State</t>
   </si>
@@ -816,12 +808,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="174" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="#,##0;&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0;&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="167" formatCode=";;;"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -878,7 +871,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,6 +914,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -937,7 +936,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -962,29 +961,30 @@
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="175" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1339,7 +1339,7 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23286.416666666668</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -1366,7 +1366,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>93586.333333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1623,7 +1623,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Leisure &amp; Hospitality</c:v>
+                  <c:v>Information</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Other</c:v>
@@ -1638,10 +1638,10 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>12649500</c:v>
+                  <c:v>2677815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>103999839</c:v>
+                  <c:v>113971524</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1859,16 +1859,16 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>15665534</c:v>
+                  <c:v>2760656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15957853</c:v>
+                  <c:v>2781425</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16212939</c:v>
+                  <c:v>2815141</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12649500</c:v>
+                  <c:v>2677815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2019,16 +2019,16 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>20737.416666666668</c:v>
+                  <c:v>75580.708333333328</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21501.9375</c:v>
+                  <c:v>79569.104166666672</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22296.645833333332</c:v>
+                  <c:v>83493.333333333328</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23286.416666666668</c:v>
+                  <c:v>93586.333333333328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2346,12 +2346,12 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v5.9</cx:f>
-        <cx:nf>_xlchart.v5.8</cx:nf>
+        <cx:f>_xlchart.v5.1</cx:f>
+        <cx:nf>_xlchart.v5.0</cx:nf>
       </cx:strDim>
       <cx:numDim type="colorVal">
-        <cx:f>_xlchart.v5.11</cx:f>
-        <cx:nf>_xlchart.v5.10</cx:nf>
+        <cx:f>_xlchart.v5.3</cx:f>
+        <cx:nf>_xlchart.v5.2</cx:nf>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2361,8 +2361,8 @@
         <cx:series layoutId="regionMap" uniqueId="{50EE8ED0-A32C-455C-899C-8FC2776A5BEB}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v5.10</cx:f>
-              <cx:v>Employees per 1000 Capita</cx:v>
+              <cx:f>_xlchart.v5.2</cx:f>
+              <cx:v>Average Wages</cx:v>
             </cx:txData>
           </cx:tx>
           <cx:dataId val="0"/>
@@ -12012,46 +12012,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -12558,525 +12518,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -13592,7 +13033,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="494">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -14105,6 +13546,10 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="26" fmlaLink="$A$1" max="10" min="1" page="10" val="10"/>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -14202,14 +13647,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14241,13 +13686,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>358140</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14278,14 +13723,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14317,13 +13762,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>487680</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" Requires="cx4">
@@ -14577,7 +14022,8 @@
               <a:latin typeface="Calibri"/>
               <a:cs typeface="Calibri"/>
             </a:rPr>
-            <a:t>11%</a:t>
+            <a:pPr/>
+            <a:t>2%</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="6000">
             <a:solidFill>
@@ -14589,6 +14035,56 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>434340</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>22860</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Spinner 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -53564,12 +53060,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{948164EF-B902-4A6C-8E3C-A935061C5153}" state="hidden">
+    <customSheetView guid="{A1F01C08-243B-48FC-94A8-F102AEB1706D}">
       <selection activeCell="F150" sqref="F150"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{A1F01C08-243B-48FC-94A8-F102AEB1706D}">
+    <customSheetView guid="{948164EF-B902-4A6C-8E3C-A935061C5153}" state="hidden">
       <selection activeCell="F150" sqref="F150"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
@@ -53993,8 +53489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECDD963-5C0C-499B-8AC0-982AD680D2EE}">
   <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -54088,7 +53584,7 @@
       </c>
       <c r="S2" s="16" t="str">
         <f>B18</f>
-        <v>Employees per 1000 Capita</v>
+        <v>Average Wages</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -54098,7 +53594,7 @@
       </c>
       <c r="B3" t="str">
         <f>Dashboard!B7</f>
-        <v>Leisure &amp; Hospitality</v>
+        <v>Information</v>
       </c>
       <c r="D3" t="s">
         <v>57</v>
@@ -54119,11 +53615,11 @@
       </c>
       <c r="K3" s="2">
         <f>AVERAGEIFS(Data!$F$2:$F$1919,Data!$B$2:$B$1919,'Data Prep'!$B$3,Data!$A$2:$A$1919,'Data Prep'!J3)</f>
-        <v>20737.416666666668</v>
+        <v>75580.708333333328</v>
       </c>
       <c r="L3" s="1">
         <f>SUMIFS(Data!$E$2:$E$1919,Data!$B$2:$B$1919,'Data Prep'!$B$3,Data!$A$2:$A$1919,'Data Prep'!J3)</f>
-        <v>15665534</v>
+        <v>2760656</v>
       </c>
       <c r="N3" t="str" cm="1">
         <f t="array" ref="N3:N50">_xlfn.UNIQUE(Data!C2:C1919)</f>
@@ -54131,7 +53627,7 @@
       </c>
       <c r="O3" s="12" cm="1">
         <f t="array" ref="O3:O50">SUMIFS(Data!E2:E1919,Data!C2:C1919,_xlfn.ANCHORARRAY('Data Prep'!N3),Data!B2:B1919,'Data Prep'!B3,Data!A2:A1919,'Data Prep'!B15)</f>
-        <v>178057</v>
+        <v>19310</v>
       </c>
       <c r="P3" vm="1">
         <f>_xlfn.XLOOKUP(N3,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54139,15 +53635,15 @@
       </c>
       <c r="Q3" s="1">
         <f>(O3/P3)*1000</f>
-        <v>36.428334544835572</v>
+        <v>3.9505952591629363</v>
       </c>
       <c r="R3" s="14" cm="1">
         <f t="array" ref="R3:R50">AVERAGEIFS(Data!F2:F1919,Data!C2:C1919,_xlfn.ANCHORARRAY('Data Prep'!N3),Data!A2:A1919,'Data Prep'!B15,Data!B2:B1919,'Data Prep'!B3)</f>
-        <v>18554</v>
+        <v>69393</v>
       </c>
       <c r="S3" s="17" cm="1">
         <f t="array" ref="S3:S50">IF($R$2=$B$18,-_xlfn.ANCHORARRAY(R3),Q3:Q50)</f>
-        <v>36.428334544835572</v>
+        <v>-69393</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -54171,17 +53667,17 @@
       </c>
       <c r="K4" s="2">
         <f>AVERAGEIFS(Data!$F$2:$F$1919,Data!$B$2:$B$1919,'Data Prep'!$B$3,Data!$A$2:$A$1919,'Data Prep'!J4)</f>
-        <v>21501.9375</v>
+        <v>79569.104166666672</v>
       </c>
       <c r="L4" s="1">
         <f>SUMIFS(Data!$E$2:$E$1919,Data!$B$2:$B$1919,'Data Prep'!$B$3,Data!$A$2:$A$1919,'Data Prep'!J4)</f>
-        <v>15957853</v>
+        <v>2781425</v>
       </c>
       <c r="N4" t="str">
         <v>Arizona</v>
       </c>
       <c r="O4" s="12">
-        <v>274985</v>
+        <v>45513</v>
       </c>
       <c r="P4" vm="2">
         <f>_xlfn.XLOOKUP(N4,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54189,13 +53685,13 @@
       </c>
       <c r="Q4" s="1">
         <f t="shared" ref="Q4:Q50" si="0">(O4/P4)*1000</f>
-        <v>38.343359390577838</v>
+        <v>6.3462418529860507</v>
       </c>
       <c r="R4" s="14">
-        <v>26810</v>
+        <v>90871</v>
       </c>
       <c r="S4" s="17">
-        <v>38.343359390577838</v>
+        <v>-90871</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -54219,17 +53715,17 @@
       </c>
       <c r="K5" s="2">
         <f>AVERAGEIFS(Data!$F$2:$F$1919,Data!$B$2:$B$1919,'Data Prep'!$B$3,Data!$A$2:$A$1919,'Data Prep'!J5)</f>
-        <v>22296.645833333332</v>
+        <v>83493.333333333328</v>
       </c>
       <c r="L5" s="1">
         <f>SUMIFS(Data!$E$2:$E$1919,Data!$B$2:$B$1919,'Data Prep'!$B$3,Data!$A$2:$A$1919,'Data Prep'!J5)</f>
-        <v>16212939</v>
+        <v>2815141</v>
       </c>
       <c r="N5" t="str">
         <v>Arkansas</v>
       </c>
       <c r="O5" s="12">
-        <v>106295</v>
+        <v>11509</v>
       </c>
       <c r="P5" vm="3">
         <f>_xlfn.XLOOKUP(N5,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54237,13 +53733,13 @@
       </c>
       <c r="Q5" s="1">
         <f t="shared" si="0"/>
-        <v>35.269134737418398</v>
+        <v>3.8187353280299954</v>
       </c>
       <c r="R5" s="14">
-        <v>18414</v>
+        <v>69820</v>
       </c>
       <c r="S5" s="17">
-        <v>35.269134737418398</v>
+        <v>-69820</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -54267,17 +53763,17 @@
       </c>
       <c r="K6" s="2">
         <f>AVERAGEIFS(Data!$F$2:$F$1919,Data!$B$2:$B$1919,'Data Prep'!$B$3,Data!$A$2:$A$1919,'Data Prep'!J6)</f>
-        <v>23286.416666666668</v>
+        <v>93586.333333333328</v>
       </c>
       <c r="L6" s="1">
         <f>SUMIFS(Data!$E$2:$E$1919,Data!$B$2:$B$1919,'Data Prep'!$B$3,Data!$A$2:$A$1919,'Data Prep'!J6)</f>
-        <v>12649500</v>
+        <v>2677815</v>
       </c>
       <c r="N6" t="str">
         <v>California</v>
       </c>
       <c r="O6" s="12">
-        <v>1482600</v>
+        <v>527549</v>
       </c>
       <c r="P6" vm="4">
         <f>_xlfn.XLOOKUP(N6,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54285,13 +53781,13 @@
       </c>
       <c r="Q6" s="1">
         <f t="shared" si="0"/>
-        <v>37.480049381848417</v>
+        <v>13.33641074554482</v>
       </c>
       <c r="R6" s="14">
-        <v>36090</v>
+        <v>217892</v>
       </c>
       <c r="S6" s="17">
-        <v>37.480049381848417</v>
+        <v>-217892</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -54314,7 +53810,7 @@
         <v>Colorado</v>
       </c>
       <c r="O7" s="12">
-        <v>271680</v>
+        <v>74867</v>
       </c>
       <c r="P7" vm="5">
         <f>_xlfn.XLOOKUP(N7,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54322,13 +53818,13 @@
       </c>
       <c r="Q7" s="1">
         <f t="shared" si="0"/>
-        <v>47.700280428768778</v>
+        <v>13.144791279669581</v>
       </c>
       <c r="R7" s="14">
-        <v>28424</v>
+        <v>123495</v>
       </c>
       <c r="S7" s="17">
-        <v>47.700280428768778</v>
+        <v>-123495</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -54351,7 +53847,7 @@
         <v>Connecticut</v>
       </c>
       <c r="O8" s="12">
-        <v>117365</v>
+        <v>29237</v>
       </c>
       <c r="P8" vm="6">
         <f>_xlfn.XLOOKUP(N8,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54359,13 +53855,13 @@
       </c>
       <c r="Q8" s="1">
         <f t="shared" si="0"/>
-        <v>32.850827043677477</v>
+        <v>8.1835268630000293</v>
       </c>
       <c r="R8" s="14">
-        <v>26295</v>
+        <v>138917</v>
       </c>
       <c r="S8" s="17">
-        <v>32.850827043677477</v>
+        <v>-138917</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -54388,7 +53884,7 @@
         <v>Delaware</v>
       </c>
       <c r="O9" s="12">
-        <v>41103</v>
+        <v>3622</v>
       </c>
       <c r="P9" vm="7">
         <f>_xlfn.XLOOKUP(N9,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54396,13 +53892,13 @@
       </c>
       <c r="Q9" s="1">
         <f t="shared" si="0"/>
-        <v>42.498172505172299</v>
+        <v>3.744942724709488</v>
       </c>
       <c r="R9" s="14">
-        <v>22228</v>
+        <v>78966</v>
       </c>
       <c r="S9" s="17">
-        <v>42.498172505172299</v>
+        <v>-78966</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -54425,7 +53921,7 @@
         <v>Florida</v>
       </c>
       <c r="O10" s="12">
-        <v>1007574</v>
+        <v>130298</v>
       </c>
       <c r="P10" vm="8">
         <f>_xlfn.XLOOKUP(N10,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54433,13 +53929,13 @@
       </c>
       <c r="Q10" s="1">
         <f t="shared" si="0"/>
-        <v>46.496262113520991</v>
+        <v>6.0128287955699129</v>
       </c>
       <c r="R10" s="14">
-        <v>27709</v>
+        <v>93350</v>
       </c>
       <c r="S10" s="17">
-        <v>46.496262113520991</v>
+        <v>-93350</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -54462,7 +53958,7 @@
         <v>Georgia</v>
       </c>
       <c r="O11" s="12">
-        <v>414059</v>
+        <v>109190</v>
       </c>
       <c r="P11" vm="9">
         <f>_xlfn.XLOOKUP(N11,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54470,13 +53966,13 @@
       </c>
       <c r="Q11" s="1">
         <f t="shared" si="0"/>
-        <v>39.361184850004392</v>
+        <v>10.379795569645824</v>
       </c>
       <c r="R11" s="14">
-        <v>22009</v>
+        <v>108735</v>
       </c>
       <c r="S11" s="17">
-        <v>39.361184850004392</v>
+        <v>-108735</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -54499,7 +53995,7 @@
         <v>Idaho</v>
       </c>
       <c r="O12" s="12">
-        <v>74574</v>
+        <v>7346</v>
       </c>
       <c r="P12" vm="10">
         <f>_xlfn.XLOOKUP(N12,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54507,13 +54003,13 @@
       </c>
       <c r="Q12" s="1">
         <f t="shared" si="0"/>
-        <v>42.511492365785585</v>
+        <v>4.1876447946879729</v>
       </c>
       <c r="R12" s="14">
-        <v>18637</v>
+        <v>64408</v>
       </c>
       <c r="S12" s="17">
-        <v>42.511492365785585</v>
+        <v>-64408</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -54521,7 +54017,7 @@
         <v>Illinois</v>
       </c>
       <c r="O13" s="12">
-        <v>462216</v>
+        <v>87520</v>
       </c>
       <c r="P13" vm="11">
         <f>_xlfn.XLOOKUP(N13,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54529,13 +54025,13 @@
       </c>
       <c r="Q13" s="1">
         <f t="shared" si="0"/>
-        <v>36.277615398380668</v>
+        <v>6.8691194153085924</v>
       </c>
       <c r="R13" s="14">
-        <v>25054</v>
+        <v>110059</v>
       </c>
       <c r="S13" s="17">
-        <v>36.277615398380668</v>
+        <v>-110059</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -54551,7 +54047,7 @@
         <v>Indiana</v>
       </c>
       <c r="O14" s="12">
-        <v>263892</v>
+        <v>26075</v>
       </c>
       <c r="P14" vm="12">
         <f>_xlfn.XLOOKUP(N14,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54559,13 +54055,13 @@
       </c>
       <c r="Q14" s="1">
         <f t="shared" si="0"/>
-        <v>39.434669908805873</v>
+        <v>3.8965145509227757</v>
       </c>
       <c r="R14" s="14">
-        <v>20493</v>
+        <v>67191</v>
       </c>
       <c r="S14" s="17">
-        <v>39.434669908805873</v>
+        <v>-67191</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -54573,7 +54069,7 @@
         <v>67</v>
       </c>
       <c r="B15" s="4">
-        <f>Dashboard!D7</f>
+        <f>Dashboard!E3</f>
         <v>2020</v>
       </c>
       <c r="G15" s="11" t="s">
@@ -54586,7 +54082,7 @@
         <v>Iowa</v>
       </c>
       <c r="O15" s="12">
-        <v>118383</v>
+        <v>19135</v>
       </c>
       <c r="P15" vm="13">
         <f>_xlfn.XLOOKUP(N15,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54594,29 +54090,29 @@
       </c>
       <c r="Q15" s="1">
         <f t="shared" si="0"/>
-        <v>37.50873296378969</v>
+        <v>6.0627759497741707</v>
       </c>
       <c r="R15" s="14">
-        <v>18002</v>
+        <v>66858</v>
       </c>
       <c r="S15" s="17">
-        <v>37.50873296378969</v>
+        <v>-66858</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="G16" t="str">
         <f>B3</f>
-        <v>Leisure &amp; Hospitality</v>
+        <v>Information</v>
       </c>
       <c r="H16" s="1" cm="1">
         <f t="array" ref="H16">_xlfn.XLOOKUP(B3,G3:G12,_xlfn.ANCHORARRAY(H3))</f>
-        <v>12649500</v>
+        <v>2677815</v>
       </c>
       <c r="N16" t="str">
         <v>Kansas</v>
       </c>
       <c r="O16" s="12">
-        <v>110526</v>
+        <v>16734</v>
       </c>
       <c r="P16" vm="14">
         <f>_xlfn.XLOOKUP(N16,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54624,13 +54120,13 @@
       </c>
       <c r="Q16" s="1">
         <f t="shared" si="0"/>
-        <v>37.961810129125659</v>
+        <v>5.7475429374155294</v>
       </c>
       <c r="R16" s="14">
-        <v>18088</v>
+        <v>73749</v>
       </c>
       <c r="S16" s="17">
-        <v>37.961810129125659</v>
+        <v>-73749</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -54643,13 +54139,13 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(_xlfn.ANCHORARRAY(H3))-H16</f>
-        <v>103999839</v>
+        <v>113971524</v>
       </c>
       <c r="N17" t="str">
         <v>Kentucky</v>
       </c>
       <c r="O17" s="12">
-        <v>165335</v>
+        <v>20268</v>
       </c>
       <c r="P17" vm="15">
         <f>_xlfn.XLOOKUP(N17,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54657,13 +54153,13 @@
       </c>
       <c r="Q17" s="1">
         <f t="shared" si="0"/>
-        <v>37.000923372606138</v>
+        <v>4.5358497288292332</v>
       </c>
       <c r="R17" s="14">
-        <v>19522</v>
+        <v>63462</v>
       </c>
       <c r="S17" s="17">
-        <v>37.000923372606138</v>
+        <v>-63462</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -54672,13 +54168,13 @@
       </c>
       <c r="B18" s="4" t="str">
         <f>Dashboard!T14</f>
-        <v>Employees per 1000 Capita</v>
+        <v>Average Wages</v>
       </c>
       <c r="N18" t="str">
         <v>Louisiana</v>
       </c>
       <c r="O18" s="12">
-        <v>188383</v>
+        <v>18712</v>
       </c>
       <c r="P18" vm="16">
         <f>_xlfn.XLOOKUP(N18,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54686,13 +54182,13 @@
       </c>
       <c r="Q18" s="1">
         <f t="shared" si="0"/>
-        <v>40.425727331759937</v>
+        <v>4.015469600929447</v>
       </c>
       <c r="R18" s="14">
-        <v>22216</v>
+        <v>65700</v>
       </c>
       <c r="S18" s="17">
-        <v>40.425727331759937</v>
+        <v>-65700</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -54701,13 +54197,13 @@
       </c>
       <c r="H19" s="18">
         <f>H16/SUM(H16:H17)</f>
-        <v>0.10844039159107451</v>
+        <v>2.2956109506972858E-2</v>
       </c>
       <c r="N19" t="str">
         <v>Maine</v>
       </c>
       <c r="O19" s="12">
-        <v>51781</v>
+        <v>6415</v>
       </c>
       <c r="P19" vm="17">
         <f>_xlfn.XLOOKUP(N19,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54715,13 +54211,13 @@
       </c>
       <c r="Q19" s="1">
         <f t="shared" si="0"/>
-        <v>38.688617188830875</v>
+        <v>4.7930221368136978</v>
       </c>
       <c r="R19" s="14">
-        <v>25112</v>
+        <v>64265</v>
       </c>
       <c r="S19" s="17">
-        <v>38.688617188830875</v>
+        <v>-64265</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -54729,7 +54225,7 @@
         <v>Maryland</v>
       </c>
       <c r="O20" s="12">
-        <v>210848</v>
+        <v>33029</v>
       </c>
       <c r="P20" vm="18">
         <f>_xlfn.XLOOKUP(N20,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54737,13 +54233,13 @@
       </c>
       <c r="Q20" s="1">
         <f t="shared" si="0"/>
-        <v>34.892907463164761</v>
+        <v>5.4659178204245169</v>
       </c>
       <c r="R20" s="14">
-        <v>26383</v>
+        <v>110569</v>
       </c>
       <c r="S20" s="17">
-        <v>34.892907463164761</v>
+        <v>-110569</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -54751,7 +54247,7 @@
         <v>Massachusetts</v>
       </c>
       <c r="O21" s="12">
-        <v>262049</v>
+        <v>89231</v>
       </c>
       <c r="P21" vm="19">
         <f>_xlfn.XLOOKUP(N21,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54759,13 +54255,13 @@
       </c>
       <c r="Q21" s="1">
         <f t="shared" si="0"/>
-        <v>37.966291368094197</v>
+        <v>12.928002568475412</v>
       </c>
       <c r="R21" s="14">
-        <v>30457</v>
+        <v>146746</v>
       </c>
       <c r="S21" s="17">
-        <v>37.966291368094197</v>
+        <v>-146746</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -54773,7 +54269,7 @@
         <v>Michigan</v>
       </c>
       <c r="O22" s="12">
-        <v>323435</v>
+        <v>50511</v>
       </c>
       <c r="P22" vm="20">
         <f>_xlfn.XLOOKUP(N22,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54781,13 +54277,13 @@
       </c>
       <c r="Q22" s="1">
         <f t="shared" si="0"/>
-        <v>32.356717719188282</v>
+        <v>5.053164217582883</v>
       </c>
       <c r="R22" s="14">
-        <v>22254</v>
+        <v>88745</v>
       </c>
       <c r="S22" s="17">
-        <v>32.356717719188282</v>
+        <v>-88745</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -54795,7 +54291,7 @@
         <v>Minnesota</v>
       </c>
       <c r="O23" s="12">
-        <v>204519</v>
+        <v>43145</v>
       </c>
       <c r="P23" vm="21">
         <f>_xlfn.XLOOKUP(N23,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54803,13 +54299,13 @@
       </c>
       <c r="Q23" s="1">
         <f t="shared" si="0"/>
-        <v>36.448489702431523</v>
+        <v>7.6891148901148938</v>
       </c>
       <c r="R23" s="14">
-        <v>24167</v>
+        <v>92292</v>
       </c>
       <c r="S23" s="17">
-        <v>36.448489702431523</v>
+        <v>-92292</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -54817,7 +54313,7 @@
         <v>Mississippi</v>
       </c>
       <c r="O24" s="12">
-        <v>118107</v>
+        <v>9629</v>
       </c>
       <c r="P24" vm="22">
         <f>_xlfn.XLOOKUP(N24,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54825,13 +54321,13 @@
       </c>
       <c r="Q24" s="1">
         <f t="shared" si="0"/>
-        <v>39.848322184786738</v>
+        <v>3.2487447341589535</v>
       </c>
       <c r="R24" s="14">
-        <v>18380</v>
+        <v>54301</v>
       </c>
       <c r="S24" s="17">
-        <v>39.848322184786738</v>
+        <v>-54301</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -54839,7 +54335,7 @@
         <v>Missouri</v>
       </c>
       <c r="O25" s="12">
-        <v>253244</v>
+        <v>43675</v>
       </c>
       <c r="P25" vm="23">
         <f>_xlfn.XLOOKUP(N25,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54847,13 +54343,13 @@
       </c>
       <c r="Q25" s="1">
         <f t="shared" si="0"/>
-        <v>41.336159982972198</v>
+        <v>7.1289222538591668</v>
       </c>
       <c r="R25" s="14">
-        <v>22154</v>
+        <v>89327</v>
       </c>
       <c r="S25" s="17">
-        <v>41.336159982972198</v>
+        <v>-89327</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -54861,7 +54357,7 @@
         <v>Montana</v>
       </c>
       <c r="O26" s="12">
-        <v>58811</v>
+        <v>5797</v>
       </c>
       <c r="P26" vm="24">
         <f>_xlfn.XLOOKUP(N26,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54869,13 +54365,13 @@
       </c>
       <c r="Q26" s="1">
         <f t="shared" si="0"/>
-        <v>55.361689910148215</v>
+        <v>5.4570015202790154</v>
       </c>
       <c r="R26" s="14">
-        <v>21078</v>
+        <v>65673</v>
       </c>
       <c r="S26" s="17">
-        <v>55.361689910148215</v>
+        <v>-65673</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -54883,7 +54379,7 @@
         <v>Nebraska</v>
       </c>
       <c r="O27" s="12">
-        <v>79529</v>
+        <v>16165</v>
       </c>
       <c r="P27" vm="25">
         <f>_xlfn.XLOOKUP(N27,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54891,13 +54387,13 @@
       </c>
       <c r="Q27" s="1">
         <f t="shared" si="0"/>
-        <v>41.222370349790701</v>
+        <v>8.3788255441960366</v>
       </c>
       <c r="R27" s="14">
-        <v>18131</v>
+        <v>76361</v>
       </c>
       <c r="S27" s="17">
-        <v>41.222370349790701</v>
+        <v>-76361</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -54905,7 +54401,7 @@
         <v>Nevada</v>
       </c>
       <c r="O28" s="12">
-        <v>255447</v>
+        <v>13306</v>
       </c>
       <c r="P28" vm="26">
         <f>_xlfn.XLOOKUP(N28,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54913,13 +54409,13 @@
       </c>
       <c r="Q28" s="1">
         <f t="shared" si="0"/>
-        <v>84.183915591657239</v>
+        <v>4.3850629714288729</v>
       </c>
       <c r="R28" s="14">
-        <v>34061</v>
+        <v>88353</v>
       </c>
       <c r="S28" s="17">
-        <v>84.183915591657239</v>
+        <v>-88353</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -54927,7 +54423,7 @@
         <v>New Hampshire</v>
       </c>
       <c r="O29" s="12">
-        <v>57132</v>
+        <v>11735</v>
       </c>
       <c r="P29" vm="27">
         <f>_xlfn.XLOOKUP(N29,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54935,13 +54431,13 @@
       </c>
       <c r="Q29" s="1">
         <f t="shared" si="0"/>
-        <v>42.118517491879587</v>
+        <v>8.651207777903922</v>
       </c>
       <c r="R29" s="14">
-        <v>24729</v>
+        <v>107194</v>
       </c>
       <c r="S29" s="17">
-        <v>42.118517491879587</v>
+        <v>-107194</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -54949,7 +54445,7 @@
         <v>New Jersey</v>
       </c>
       <c r="O30" s="12">
-        <v>281546</v>
+        <v>67885</v>
       </c>
       <c r="P30" vm="28">
         <f>_xlfn.XLOOKUP(N30,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54957,13 +54453,13 @@
       </c>
       <c r="Q30" s="1">
         <f t="shared" si="0"/>
-        <v>31.604127284891316</v>
+        <v>7.6202332149447942</v>
       </c>
       <c r="R30" s="14">
-        <v>28639</v>
+        <v>130541</v>
       </c>
       <c r="S30" s="17">
-        <v>31.604127284891316</v>
+        <v>-130541</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -54971,7 +54467,7 @@
         <v>New Mexico</v>
       </c>
       <c r="O31" s="12">
-        <v>78539</v>
+        <v>9076</v>
       </c>
       <c r="P31" vm="29">
         <f>_xlfn.XLOOKUP(N31,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -54979,13 +54475,13 @@
       </c>
       <c r="Q31" s="1">
         <f t="shared" si="0"/>
-        <v>37.481125574345675</v>
+        <v>4.3313346963007078</v>
       </c>
       <c r="R31" s="14">
-        <v>19988</v>
+        <v>62393</v>
       </c>
       <c r="S31" s="17">
-        <v>37.481125574345675</v>
+        <v>-62393</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -54993,7 +54489,7 @@
         <v>New York</v>
       </c>
       <c r="O32" s="12">
-        <v>632760</v>
+        <v>267749</v>
       </c>
       <c r="P32" vm="30">
         <f>_xlfn.XLOOKUP(N32,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55001,13 +54497,13 @@
       </c>
       <c r="Q32" s="1">
         <f t="shared" si="0"/>
-        <v>32.379144036377873</v>
+        <v>13.701061123642674</v>
       </c>
       <c r="R32" s="14">
-        <v>36986</v>
+        <v>154357</v>
       </c>
       <c r="S32" s="17">
-        <v>32.379144036377873</v>
+        <v>-154357</v>
       </c>
     </row>
     <row r="33" spans="14:19" x14ac:dyDescent="0.3">
@@ -55015,7 +54511,7 @@
         <v>North Carolina</v>
       </c>
       <c r="O33" s="12">
-        <v>420420</v>
+        <v>73440</v>
       </c>
       <c r="P33" vm="31">
         <f>_xlfn.XLOOKUP(N33,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55023,13 +54519,13 @@
       </c>
       <c r="Q33" s="1">
         <f t="shared" si="0"/>
-        <v>40.48876981245462</v>
+        <v>7.0726779292770727</v>
       </c>
       <c r="R33" s="14">
-        <v>21462</v>
+        <v>96207</v>
       </c>
       <c r="S33" s="17">
-        <v>40.48876981245462</v>
+        <v>-96207</v>
       </c>
     </row>
     <row r="34" spans="14:19" x14ac:dyDescent="0.3">
@@ -55037,7 +54533,7 @@
         <v>North Dakota</v>
       </c>
       <c r="O34" s="12">
-        <v>34228</v>
+        <v>5780</v>
       </c>
       <c r="P34" vm="32">
         <f>_xlfn.XLOOKUP(N34,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55045,13 +54541,13 @@
       </c>
       <c r="Q34" s="1">
         <f t="shared" si="0"/>
-        <v>45.032279624301225</v>
+        <v>7.6044927027130145</v>
       </c>
       <c r="R34" s="14">
-        <v>19193</v>
+        <v>79624</v>
       </c>
       <c r="S34" s="17">
-        <v>45.032279624301225</v>
+        <v>-79624</v>
       </c>
     </row>
     <row r="35" spans="14:19" x14ac:dyDescent="0.3">
@@ -55059,7 +54555,7 @@
         <v>Ohio</v>
       </c>
       <c r="O35" s="12">
-        <v>466069</v>
+        <v>63865</v>
       </c>
       <c r="P35" vm="33">
         <f>_xlfn.XLOOKUP(N35,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55067,13 +54563,13 @@
       </c>
       <c r="Q35" s="1">
         <f t="shared" si="0"/>
-        <v>39.870936525456052</v>
+        <v>5.4634772130269349</v>
       </c>
       <c r="R35" s="14">
-        <v>21027</v>
+        <v>80052</v>
       </c>
       <c r="S35" s="17">
-        <v>39.870936525456052</v>
+        <v>-80052</v>
       </c>
     </row>
     <row r="36" spans="14:19" x14ac:dyDescent="0.3">
@@ -55081,7 +54577,7 @@
         <v>Oklahoma</v>
       </c>
       <c r="O36" s="12">
-        <v>156230</v>
+        <v>18256</v>
       </c>
       <c r="P36" vm="34">
         <f>_xlfn.XLOOKUP(N36,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55089,13 +54585,13 @@
       </c>
       <c r="Q36" s="1">
         <f t="shared" si="0"/>
-        <v>39.621321307536576</v>
+        <v>4.6298844126633023</v>
       </c>
       <c r="R36" s="14">
-        <v>19310</v>
+        <v>63710</v>
       </c>
       <c r="S36" s="17">
-        <v>39.621321307536576</v>
+        <v>-63710</v>
       </c>
     </row>
     <row r="37" spans="14:19" x14ac:dyDescent="0.3">
@@ -55103,7 +54599,7 @@
         <v>Oregon</v>
       </c>
       <c r="O37" s="12">
-        <v>161570</v>
+        <v>33218</v>
       </c>
       <c r="P37" vm="35">
         <f>_xlfn.XLOOKUP(N37,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55111,13 +54607,13 @@
       </c>
       <c r="Q37" s="1">
         <f t="shared" si="0"/>
-        <v>38.554298516744048</v>
+        <v>7.9265747857226208</v>
       </c>
       <c r="R37" s="14">
-        <v>24338</v>
+        <v>101737</v>
       </c>
       <c r="S37" s="17">
-        <v>38.554298516744048</v>
+        <v>-101737</v>
       </c>
     </row>
     <row r="38" spans="14:19" x14ac:dyDescent="0.3">
@@ -55125,7 +54621,7 @@
         <v>Pennsylvania</v>
       </c>
       <c r="O38" s="12">
-        <v>424092</v>
+        <v>82872</v>
       </c>
       <c r="P38" vm="36">
         <f>_xlfn.XLOOKUP(N38,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55133,13 +54629,13 @@
       </c>
       <c r="Q38" s="1">
         <f t="shared" si="0"/>
-        <v>33.113923101789169</v>
+        <v>6.4708059460953571</v>
       </c>
       <c r="R38" s="14">
-        <v>22945</v>
+        <v>107388</v>
       </c>
       <c r="S38" s="17">
-        <v>33.113923101789169</v>
+        <v>-107388</v>
       </c>
     </row>
     <row r="39" spans="14:19" x14ac:dyDescent="0.3">
@@ -55147,7 +54643,7 @@
         <v>Rhode Island</v>
       </c>
       <c r="O39" s="12">
-        <v>44621</v>
+        <v>5243</v>
       </c>
       <c r="P39" vm="37">
         <f>_xlfn.XLOOKUP(N39,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55155,13 +54651,13 @@
       </c>
       <c r="Q39" s="1">
         <f t="shared" si="0"/>
-        <v>42.202181941994581</v>
+        <v>4.9587871164222586</v>
       </c>
       <c r="R39" s="14">
-        <v>24733</v>
+        <v>87286</v>
       </c>
       <c r="S39" s="17">
-        <v>42.202181941994581</v>
+        <v>-87286</v>
       </c>
     </row>
     <row r="40" spans="14:19" x14ac:dyDescent="0.3">
@@ -55169,7 +54665,7 @@
         <v>South Carolina</v>
       </c>
       <c r="O40" s="12">
-        <v>226959</v>
+        <v>24744</v>
       </c>
       <c r="P40" vm="38">
         <f>_xlfn.XLOOKUP(N40,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55177,13 +54673,13 @@
       </c>
       <c r="Q40" s="1">
         <f t="shared" si="0"/>
-        <v>44.640702327066187</v>
+        <v>4.8669122545522558</v>
       </c>
       <c r="R40" s="14">
-        <v>19677</v>
+        <v>73562</v>
       </c>
       <c r="S40" s="17">
-        <v>44.640702327066187</v>
+        <v>-73562</v>
       </c>
     </row>
     <row r="41" spans="14:19" x14ac:dyDescent="0.3">
@@ -55191,7 +54687,7 @@
         <v>South Dakota</v>
       </c>
       <c r="O41" s="12">
-        <v>41000</v>
+        <v>5074</v>
       </c>
       <c r="P41" vm="39">
         <f>_xlfn.XLOOKUP(N41,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55199,13 +54695,13 @@
       </c>
       <c r="Q41" s="1">
         <f t="shared" si="0"/>
-        <v>46.472878541431704</v>
+        <v>5.7513020907127919</v>
       </c>
       <c r="R41" s="14">
-        <v>18829</v>
+        <v>58069</v>
       </c>
       <c r="S41" s="17">
-        <v>46.472878541431704</v>
+        <v>-58069</v>
       </c>
     </row>
     <row r="42" spans="14:19" x14ac:dyDescent="0.3">
@@ -55213,7 +54709,7 @@
         <v>Tennessee</v>
       </c>
       <c r="O42" s="12">
-        <v>293033</v>
+        <v>42929</v>
       </c>
       <c r="P42" vm="40">
         <f>_xlfn.XLOOKUP(N42,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55221,13 +54717,13 @@
       </c>
       <c r="Q42" s="1">
         <f t="shared" si="0"/>
-        <v>43.283983332373218</v>
+        <v>6.3410541491076087</v>
       </c>
       <c r="R42" s="14">
-        <v>23771</v>
+        <v>81293</v>
       </c>
       <c r="S42" s="17">
-        <v>43.283983332373218</v>
+        <v>-81293</v>
       </c>
     </row>
     <row r="43" spans="14:19" x14ac:dyDescent="0.3">
@@ -55235,7 +54731,7 @@
         <v>Texas</v>
       </c>
       <c r="O43" s="12">
-        <v>1178456</v>
+        <v>198521</v>
       </c>
       <c r="P43" vm="41">
         <f>_xlfn.XLOOKUP(N43,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55243,13 +54739,13 @@
       </c>
       <c r="Q43" s="1">
         <f t="shared" si="0"/>
-        <v>41.058545191084406</v>
+        <v>6.9166633712919854</v>
       </c>
       <c r="R43" s="14">
-        <v>23001</v>
+        <v>102835</v>
       </c>
       <c r="S43" s="17">
-        <v>41.058545191084406</v>
+        <v>-102835</v>
       </c>
     </row>
     <row r="44" spans="14:19" x14ac:dyDescent="0.3">
@@ -55257,7 +54753,7 @@
         <v>Utah</v>
       </c>
       <c r="O44" s="12">
-        <v>133375</v>
+        <v>37222</v>
       </c>
       <c r="P44" vm="42">
         <f>_xlfn.XLOOKUP(N44,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55265,13 +54761,13 @@
       </c>
       <c r="Q44" s="1">
         <f t="shared" si="0"/>
-        <v>42.192524449520029</v>
+        <v>11.774996401574766</v>
       </c>
       <c r="R44" s="14">
-        <v>21580</v>
+        <v>96974</v>
       </c>
       <c r="S44" s="17">
-        <v>42.192524449520029</v>
+        <v>-96974</v>
       </c>
     </row>
     <row r="45" spans="14:19" x14ac:dyDescent="0.3">
@@ -55279,7 +54775,7 @@
         <v>Vermont</v>
       </c>
       <c r="O45" s="12">
-        <v>25985</v>
+        <v>3961</v>
       </c>
       <c r="P45" vm="43">
         <f>_xlfn.XLOOKUP(N45,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55287,13 +54783,13 @@
       </c>
       <c r="Q45" s="1">
         <f t="shared" si="0"/>
-        <v>41.48976766688115</v>
+        <v>6.32445525220382</v>
       </c>
       <c r="R45" s="14">
-        <v>26068</v>
+        <v>68605</v>
       </c>
       <c r="S45" s="17">
-        <v>41.48976766688115</v>
+        <v>-68605</v>
       </c>
     </row>
     <row r="46" spans="14:19" x14ac:dyDescent="0.3">
@@ -55301,7 +54797,7 @@
         <v>Virginia</v>
       </c>
       <c r="O46" s="12">
-        <v>322216</v>
+        <v>64840</v>
       </c>
       <c r="P46" vm="44">
         <f>_xlfn.XLOOKUP(N46,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55309,13 +54805,13 @@
       </c>
       <c r="Q46" s="1">
         <f t="shared" si="0"/>
-        <v>37.829058012828604</v>
+        <v>7.6123970304137796</v>
       </c>
       <c r="R46" s="14">
-        <v>22634</v>
+        <v>117848</v>
       </c>
       <c r="S46" s="17">
-        <v>37.829058012828604</v>
+        <v>-117848</v>
       </c>
     </row>
     <row r="47" spans="14:19" x14ac:dyDescent="0.3">
@@ -55323,7 +54819,7 @@
         <v>Washington</v>
       </c>
       <c r="O47" s="12">
-        <v>255412</v>
+        <v>148556</v>
       </c>
       <c r="P47" vm="45">
         <f>_xlfn.XLOOKUP(N47,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55331,13 +54827,13 @@
       </c>
       <c r="Q47" s="1">
         <f t="shared" si="0"/>
-        <v>33.541114760246792</v>
+        <v>19.508612924699005</v>
       </c>
       <c r="R47" s="14">
-        <v>26657</v>
+        <v>242273</v>
       </c>
       <c r="S47" s="17">
-        <v>33.541114760246792</v>
+        <v>-242273</v>
       </c>
     </row>
     <row r="48" spans="14:19" x14ac:dyDescent="0.3">
@@ -55345,7 +54841,7 @@
         <v>West Virginia</v>
       </c>
       <c r="O48" s="12">
-        <v>61253</v>
+        <v>7215</v>
       </c>
       <c r="P48" vm="46">
         <f>_xlfn.XLOOKUP(N48,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55353,13 +54849,13 @@
       </c>
       <c r="Q48" s="1">
         <f t="shared" si="0"/>
-        <v>33.919545118261276</v>
+        <v>3.9953882753212926</v>
       </c>
       <c r="R48" s="14">
-        <v>18945</v>
+        <v>58063</v>
       </c>
       <c r="S48" s="17">
-        <v>33.919545118261276</v>
+        <v>-58063</v>
       </c>
     </row>
     <row r="49" spans="14:19" x14ac:dyDescent="0.3">
@@ -55367,7 +54863,7 @@
         <v>Wisconsin</v>
       </c>
       <c r="O49" s="12">
-        <v>227495</v>
+        <v>44846</v>
       </c>
       <c r="P49" vm="47">
         <f>_xlfn.XLOOKUP(N49,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55375,13 +54871,13 @@
       </c>
       <c r="Q49" s="1">
         <f t="shared" si="0"/>
-        <v>39.131734590530293</v>
+        <v>7.7140234706121955</v>
       </c>
       <c r="R49" s="14">
-        <v>19473</v>
+        <v>88336</v>
       </c>
       <c r="S49" s="17">
-        <v>39.131734590530293</v>
+        <v>-88336</v>
       </c>
     </row>
     <row r="50" spans="14:19" x14ac:dyDescent="0.3">
@@ -55389,7 +54885,7 @@
         <v>Wyoming</v>
       </c>
       <c r="O50" s="12">
-        <v>32312</v>
+        <v>3000</v>
       </c>
       <c r="P50" vm="48">
         <f>_xlfn.XLOOKUP(N50,Populations!$A$2:$A$49,Populations!$B$2:$B$49)</f>
@@ -55397,13 +54893,13 @@
       </c>
       <c r="Q50" s="1">
         <f t="shared" si="0"/>
-        <v>55.928562650479371</v>
+        <v>5.1926741752735248</v>
       </c>
       <c r="R50" s="14">
-        <v>23041</v>
+        <v>54299</v>
       </c>
       <c r="S50" s="17">
-        <v>55.928562650479371</v>
+        <v>-54299</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -55434,7 +54930,7 @@
       </c>
       <c r="C81" s="2">
         <f>IF(A81=$B$3,B81,0)</f>
-        <v>23286.416666666668</v>
+        <v>0</v>
       </c>
       <c r="E81" s="1"/>
     </row>
@@ -55551,7 +55047,7 @@
       </c>
       <c r="C90" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>93586.333333333328</v>
       </c>
       <c r="E90" s="1"/>
     </row>
@@ -55562,11 +55058,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1388FF-8F53-4FCE-A1AD-6DCC6E3ACDED}">
-  <dimension ref="B1:T51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE1388FF-8F53-4FCE-A1AD-6DCC6E3ACDED}">
+  <dimension ref="A1:X51"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -55581,33 +55077,39 @@
     <col min="25" max="16384" width="8.88671875" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:20" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="B7" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.35">
+      <c r="E3" s="21">
         <v>2020</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:20" ht="21" x14ac:dyDescent="0.4">
-      <c r="T14" s="21" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:20" ht="31.2" x14ac:dyDescent="0.6">
+      <c r="B7" s="19" t="str" cm="1">
+        <f t="array" ref="B7">INDEX('Data Prep'!$A$81:$A$90,Dashboard!$A$1)</f>
+        <v>Information</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:20" ht="21" x14ac:dyDescent="0.4">
+      <c r="T14" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3"/>
     <row r="17" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="18" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="19" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -55644,24 +55146,49 @@
     <row r="50" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
     <row r="51" customFormat="1" hidden="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7" xr:uid="{8EFBC944-F8A4-4D4C-80F7-1D314018516B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3" xr:uid="{8EFBC944-F8A4-4D4C-80F7-1D314018516B}">
       <formula1>"2017,2018,2019,2020"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B7" unlockedFormula="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId4" name="Spinner 2">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>434340</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>22860</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A2ED78A8-0EE2-438D-B7D2-BBDD9DA30AFB}">
-          <x14:formula1>
-            <xm:f>'Data Prep'!$A$3:$A$12</xm:f>
-          </x14:formula1>
-          <xm:sqref>B7</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5F6A3E99-18F5-423D-9F80-F3EDEDDACC7F}">
           <x14:formula1>
             <xm:f>'Data Prep'!$Q$2:$R$2</xm:f>
